--- a/Data/Hydrophone_Position.xlsx
+++ b/Data/Hydrophone_Position.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/testuser/Documents/ONR_RAP/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B7A3C85-2792-7E46-85FF-CB77D4272A1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8024A3E-29A2-E14D-A653-4BB5DC1B8AED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{34ACAB8F-7993-F543-8192-9147B8AA556F}"/>
+    <workbookView xWindow="14460" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{34ACAB8F-7993-F543-8192-9147B8AA556F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6D4CC0-7824-4A44-AE93-E9D1D386245D}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -571,14 +571,12 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="2">
         <v>20</v>
       </c>
       <c r="D4" s="2">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="E4" s="5">
         <v>-158.00619</v>
@@ -590,27 +588,25 @@
         <v>4729.92</v>
       </c>
       <c r="H4" s="5">
-        <v>1.63</v>
+        <v>0.61</v>
       </c>
       <c r="I4" s="5">
-        <v>-0.68</v>
+        <v>-0.71699999999999997</v>
       </c>
       <c r="J4" s="5">
-        <v>5.22</v>
+        <v>5.23</v>
       </c>
       <c r="K4" s="5">
-        <v>4735.1400000000003</v>
+        <v>4735.1499999999996</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="2">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="E5" s="5">
         <v>-158.00619</v>
@@ -621,16 +617,88 @@
       <c r="G5" s="5">
         <v>4729.92</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="2">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="E7" s="5">
+        <v>-158.00619</v>
+      </c>
+      <c r="F7" s="5">
+        <v>22.738772000000001</v>
+      </c>
+      <c r="G7" s="5">
+        <v>4729.92</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1.63</v>
+      </c>
+      <c r="I7" s="5">
+        <v>-0.68</v>
+      </c>
+      <c r="J7" s="5">
+        <v>5.22</v>
+      </c>
+      <c r="K7" s="5">
+        <v>4735.1400000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="E8" s="5">
+        <v>-158.00619</v>
+      </c>
+      <c r="F8" s="5">
+        <v>22.738772000000001</v>
+      </c>
+      <c r="G8" s="5">
+        <v>4729.92</v>
+      </c>
+      <c r="H8" s="5">
         <v>1.01</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I8" s="5">
         <v>-0.84</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J8" s="5">
         <v>4.66</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K8" s="5">
         <v>4734.58</v>
       </c>
     </row>

--- a/Data/Hydrophone_Position.xlsx
+++ b/Data/Hydrophone_Position.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/testuser/Documents/ONR_RAP/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8024A3E-29A2-E14D-A653-4BB5DC1B8AED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FF320C-FAF3-F242-8A6B-02A8AD675E96}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14460" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{34ACAB8F-7993-F543-8192-9147B8AA556F}"/>
+    <workbookView xWindow="8000" yWindow="1680" windowWidth="21700" windowHeight="15940" xr2:uid="{34ACAB8F-7993-F543-8192-9147B8AA556F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Cruise</t>
   </si>
@@ -39,12 +39,6 @@
     <t>Original Position</t>
   </si>
   <si>
-    <t>Correlation Length</t>
-  </si>
-  <si>
-    <t>Grid Size</t>
-  </si>
-  <si>
     <t>Lat</t>
   </si>
   <si>
@@ -54,9 +48,6 @@
     <t>Depth</t>
   </si>
   <si>
-    <t>Offset</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -79,6 +70,37 @@
   </si>
   <si>
     <t>HEM</t>
+  </si>
+  <si>
+    <t> 22.738764</t>
+  </si>
+  <si>
+    <t>10,10,5</t>
+  </si>
+  <si>
+    <t>Correlation Length
+(km)</t>
+  </si>
+  <si>
+    <t>tx uncertainty 
+(ms RMS)</t>
+  </si>
+  <si>
+    <t>Hyd pos variance 
+(m^2)</t>
+  </si>
+  <si>
+    <t>Grid Size
+(km)</t>
+  </si>
+  <si>
+    <t>Offset (m)</t>
+  </si>
+  <si>
+    <t>Hydrophone Offset varaince (m)</t>
+  </si>
+  <si>
+    <t>0.207,0.2751,0.0538</t>
   </si>
 </sst>
 </file>
@@ -94,21 +116,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -140,25 +174,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,244 +574,394 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6D4CC0-7824-4A44-AE93-E9D1D386245D}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
+        <v>20</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="2"/>
+      <c r="F3" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-158.00619</v>
+      </c>
+      <c r="H3" s="10">
+        <v>22.738772000000001</v>
+      </c>
+      <c r="I3" s="10">
+        <v>4729.92</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="K3" s="3">
+        <v>-0.87</v>
+      </c>
+      <c r="L3" s="3">
+        <v>5.37</v>
+      </c>
+      <c r="M3" s="3">
+        <v>4735.29</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="3" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="3">
+        <v>20</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-158.00619</v>
+      </c>
+      <c r="H4" s="10">
+        <v>22.738772000000001</v>
+      </c>
+      <c r="I4" s="10">
+        <v>4729.92</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="K4" s="3">
+        <v>-0.71699999999999997</v>
+      </c>
+      <c r="L4" s="3">
+        <v>5.23</v>
+      </c>
+      <c r="M4" s="3">
+        <v>4735.1499999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="3">
+        <v>20</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-158.00619</v>
+      </c>
+      <c r="H5" s="10">
+        <v>22.738772000000001</v>
+      </c>
+      <c r="I5" s="10">
+        <v>4729.92</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="K5" s="3">
+        <v>-0.71599999999999997</v>
+      </c>
+      <c r="L5" s="3">
+        <v>5.23</v>
+      </c>
+      <c r="M5" s="3">
+        <v>4735.1499999999996</v>
+      </c>
+      <c r="N5" s="16">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="O5" s="16">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="P5" s="16">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="3">
+        <v>20</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="G6" s="9">
+        <v>-158.0061781</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="9">
+        <v>4735.29</v>
+      </c>
+      <c r="J6" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="L6" s="3">
+        <v>-8.1900000000000001E-2</v>
+      </c>
+      <c r="M6" s="3">
+        <f>I6+L6</f>
+        <v>4735.2080999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="3">
+        <v>20</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="G7" s="9">
+        <v>-158.0061781</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="9">
+        <v>4735.29</v>
+      </c>
+      <c r="J7" s="3">
+        <v>-9.8000000000000004E-2</v>
+      </c>
+      <c r="K7" s="3">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="L7" s="3">
+        <v>-0.04</v>
+      </c>
+      <c r="M7" s="3">
+        <f>I7+L7</f>
+        <v>4735.25</v>
+      </c>
+      <c r="N7" s="16">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P7" s="16">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="C8" s="3">
+        <v>20</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-158.00619</v>
+      </c>
+      <c r="H8" s="10">
+        <v>22.738772000000001</v>
+      </c>
+      <c r="I8" s="10">
+        <v>4729.92</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1.63</v>
+      </c>
+      <c r="K8" s="3">
+        <v>-0.68</v>
+      </c>
+      <c r="L8" s="3">
+        <v>5.22</v>
+      </c>
+      <c r="M8" s="3">
+        <v>4735.1400000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="C9" s="3">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>4.8</v>
       </c>
-      <c r="E3" s="5">
+      <c r="G9" s="10">
         <v>-158.00619</v>
       </c>
-      <c r="F3" s="5">
+      <c r="H9" s="10">
         <v>22.738772000000001</v>
       </c>
-      <c r="G3" s="5">
+      <c r="I9" s="10">
         <v>4729.92</v>
       </c>
-      <c r="H3" s="5">
-        <v>0.81</v>
-      </c>
-      <c r="I3" s="5">
-        <v>-0.87</v>
-      </c>
-      <c r="J3" s="5">
-        <v>5.37</v>
-      </c>
-      <c r="K3" s="5">
-        <v>4735.29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="4"/>
-      <c r="C4" s="2">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="E4" s="5">
-        <v>-158.00619</v>
-      </c>
-      <c r="F4" s="5">
-        <v>22.738772000000001</v>
-      </c>
-      <c r="G4" s="5">
-        <v>4729.92</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0.61</v>
-      </c>
-      <c r="I4" s="5">
-        <v>-0.71699999999999997</v>
-      </c>
-      <c r="J4" s="5">
-        <v>5.23</v>
-      </c>
-      <c r="K4" s="5">
-        <v>4735.1499999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="4"/>
-      <c r="C5" s="2">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="E5" s="5">
-        <v>-158.00619</v>
-      </c>
-      <c r="F5" s="5">
-        <v>22.738772000000001</v>
-      </c>
-      <c r="G5" s="5">
-        <v>4729.92</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
-      <c r="C6" s="2">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="E7" s="5">
-        <v>-158.00619</v>
-      </c>
-      <c r="F7" s="5">
-        <v>22.738772000000001</v>
-      </c>
-      <c r="G7" s="5">
-        <v>4729.92</v>
-      </c>
-      <c r="H7" s="5">
-        <v>1.63</v>
-      </c>
-      <c r="I7" s="5">
-        <v>-0.68</v>
-      </c>
-      <c r="J7" s="5">
-        <v>5.22</v>
-      </c>
-      <c r="K7" s="5">
-        <v>4735.1400000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="E8" s="5">
-        <v>-158.00619</v>
-      </c>
-      <c r="F8" s="5">
-        <v>22.738772000000001</v>
-      </c>
-      <c r="G8" s="5">
-        <v>4729.92</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="J9" s="3">
         <v>1.01</v>
       </c>
-      <c r="I8" s="5">
+      <c r="K9" s="3">
         <v>-0.84</v>
       </c>
-      <c r="J8" s="5">
+      <c r="L9" s="3">
         <v>4.66</v>
       </c>
-      <c r="K8" s="5">
+      <c r="M9" s="3">
         <v>4734.58</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="E1:G1"/>
+  <mergeCells count="9">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="J1:L1"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Hydrophone_Position.xlsx
+++ b/Data/Hydrophone_Position.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/testuser/Documents/ONR_RAP/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FF320C-FAF3-F242-8A6B-02A8AD675E96}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92719185-5046-5B46-8ACE-B7E07A1140CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8000" yWindow="1680" windowWidth="21700" windowHeight="15940" xr2:uid="{34ACAB8F-7993-F543-8192-9147B8AA556F}"/>
+    <workbookView xWindow="7480" yWindow="460" windowWidth="21700" windowHeight="15940" activeTab="3" xr2:uid="{34ACAB8F-7993-F543-8192-9147B8AA556F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="June2017_HEM" sheetId="1" r:id="rId1"/>
+    <sheet name="June2018_HEM" sheetId="2" r:id="rId2"/>
+    <sheet name="October2018_HEM" sheetId="3" r:id="rId3"/>
+    <sheet name="October2018_icListen" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
-  <si>
-    <t>Cruise</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="22">
   <si>
     <t>Original Position</t>
   </si>
@@ -57,19 +57,7 @@
     <t>z</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
-    <t>June 2018</t>
-  </si>
-  <si>
-    <t>October 2018</t>
-  </si>
-  <si>
     <t>final depth</t>
-  </si>
-  <si>
-    <t>HEM</t>
   </si>
   <si>
     <t> 22.738764</t>
@@ -101,6 +89,21 @@
   </si>
   <si>
     <t>0.207,0.2751,0.0538</t>
+  </si>
+  <si>
+    <t>15km. Limit</t>
+  </si>
+  <si>
+    <t>15kmlimit</t>
+  </si>
+  <si>
+    <t>z diff (HEM-ic)</t>
+  </si>
+  <si>
+    <t>no limit</t>
+  </si>
+  <si>
+    <t>15 km limit</t>
   </si>
 </sst>
 </file>
@@ -142,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -163,15 +166,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -224,42 +218,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,394 +563,931 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6D4CC0-7824-4A44-AE93-E9D1D386245D}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="13" max="13" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="E3" s="7">
+        <v>-158.00619</v>
+      </c>
+      <c r="F3" s="7">
+        <v>22.738772000000001</v>
+      </c>
+      <c r="G3" s="7">
+        <v>4729.92</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="I3" s="2">
+        <v>-0.87</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5.37</v>
+      </c>
+      <c r="K3" s="2">
+        <v>4735.29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="E4" s="7">
+        <v>-158.00619</v>
+      </c>
+      <c r="F4" s="7">
+        <v>22.738772000000001</v>
+      </c>
+      <c r="G4" s="7">
+        <v>4729.92</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="I4" s="2">
+        <v>-0.71699999999999997</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5.23</v>
+      </c>
+      <c r="K4" s="2">
+        <v>4735.1499999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="E5" s="7">
+        <v>-158.00619</v>
+      </c>
+      <c r="F5" s="7">
+        <v>22.738772000000001</v>
+      </c>
+      <c r="G5" s="7">
+        <v>4729.92</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="I5" s="2">
+        <v>-0.71599999999999997</v>
+      </c>
+      <c r="J5" s="2">
+        <v>5.23</v>
+      </c>
+      <c r="K5" s="2">
+        <v>4735.1499999999996</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="M5" s="13">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="N5" s="13">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="E6" s="6">
+        <v>-158.0061781</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="6">
+        <v>4735.29</v>
+      </c>
+      <c r="H6" s="2">
+        <v>-0.19</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="J6" s="2">
+        <v>-8.1900000000000001E-2</v>
+      </c>
+      <c r="K6" s="2">
+        <f>G6+J6</f>
+        <v>4735.2080999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>20</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="E7" s="6">
+        <v>-158.0061781</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="6">
+        <v>4735.29</v>
+      </c>
+      <c r="H7" s="2">
+        <v>-9.8000000000000004E-2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>-0.04</v>
+      </c>
+      <c r="K7" s="2">
+        <f>G7+J7</f>
+        <v>4735.25</v>
+      </c>
+      <c r="L7" s="13">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="M7" s="13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N7" s="13">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="E8" s="7">
+        <v>-158.00619</v>
+      </c>
+      <c r="F8" s="7">
+        <v>22.738772000000001</v>
+      </c>
+      <c r="G8" s="7">
+        <v>4729.92</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.57840000000000003</v>
+      </c>
+      <c r="I8" s="2">
+        <v>-0.432</v>
+      </c>
+      <c r="J8" s="2">
+        <v>5.4020000000000001</v>
+      </c>
+      <c r="K8" s="2">
+        <f>G8+J8</f>
+        <v>4735.3220000000001</v>
+      </c>
+      <c r="L8" s="13">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="M8" s="13">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="N8" s="13">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="O8" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3">
-        <v>20</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="G3" s="10">
-        <v>-158.00619</v>
-      </c>
-      <c r="H3" s="10">
-        <v>22.738772000000001</v>
-      </c>
-      <c r="I3" s="10">
-        <v>4729.92</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0.81</v>
-      </c>
-      <c r="K3" s="3">
-        <v>-0.87</v>
-      </c>
-      <c r="L3" s="3">
-        <v>5.37</v>
-      </c>
-      <c r="M3" s="3">
-        <v>4735.29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="3">
-        <v>20</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="G4" s="10">
-        <v>-158.00619</v>
-      </c>
-      <c r="H4" s="10">
-        <v>22.738772000000001</v>
-      </c>
-      <c r="I4" s="10">
-        <v>4729.92</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0.61</v>
-      </c>
-      <c r="K4" s="3">
-        <v>-0.71699999999999997</v>
-      </c>
-      <c r="L4" s="3">
-        <v>5.23</v>
-      </c>
-      <c r="M4" s="3">
-        <v>4735.1499999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="3">
-        <v>20</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="G5" s="10">
-        <v>-158.00619</v>
-      </c>
-      <c r="H5" s="10">
-        <v>22.738772000000001</v>
-      </c>
-      <c r="I5" s="10">
-        <v>4729.92</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0.61</v>
-      </c>
-      <c r="K5" s="3">
-        <v>-0.71599999999999997</v>
-      </c>
-      <c r="L5" s="3">
-        <v>5.23</v>
-      </c>
-      <c r="M5" s="3">
-        <v>4735.1499999999996</v>
-      </c>
-      <c r="N5" s="16">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="O5" s="16">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="P5" s="16">
-        <v>5.3999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="3">
-        <v>20</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="G6" s="9">
-        <v>-158.0061781</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="9">
-        <v>4735.29</v>
-      </c>
-      <c r="J6" s="3">
-        <v>-0.19</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="L6" s="3">
-        <v>-8.1900000000000001E-2</v>
-      </c>
-      <c r="M6" s="3">
-        <f>I6+L6</f>
-        <v>4735.2080999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="3">
-        <v>20</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="G7" s="9">
-        <v>-158.0061781</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="9">
-        <v>4735.29</v>
-      </c>
-      <c r="J7" s="3">
-        <v>-9.8000000000000004E-2</v>
-      </c>
-      <c r="K7" s="3">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="L7" s="3">
-        <v>-0.04</v>
-      </c>
-      <c r="M7" s="3">
-        <f>I7+L7</f>
-        <v>4735.25</v>
-      </c>
-      <c r="N7" s="16">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="O7" s="16">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="P7" s="16">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3">
-        <v>20</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="G8" s="10">
-        <v>-158.00619</v>
-      </c>
-      <c r="H8" s="10">
-        <v>22.738772000000001</v>
-      </c>
-      <c r="I8" s="10">
-        <v>4729.92</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1.63</v>
-      </c>
-      <c r="K8" s="3">
-        <v>-0.68</v>
-      </c>
-      <c r="L8" s="3">
-        <v>5.22</v>
-      </c>
-      <c r="M8" s="3">
-        <v>4735.1400000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3">
-        <v>20</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="G9" s="10">
-        <v>-158.00619</v>
-      </c>
-      <c r="H9" s="10">
-        <v>22.738772000000001</v>
-      </c>
-      <c r="I9" s="10">
-        <v>4729.92</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1.01</v>
-      </c>
-      <c r="K9" s="3">
-        <v>-0.84</v>
-      </c>
-      <c r="L9" s="3">
-        <v>4.66</v>
-      </c>
-      <c r="M9" s="3">
-        <v>4734.58</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="7">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="E1:G1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F398C1D8-4F0F-BB48-951E-6E7A9DC3A6FE}">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="E3" s="7">
+        <v>-158.00619</v>
+      </c>
+      <c r="F3" s="7">
+        <v>22.738772000000001</v>
+      </c>
+      <c r="G3" s="7">
+        <v>4729.92</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1.63</v>
+      </c>
+      <c r="I3" s="2">
+        <v>-0.68</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5.22</v>
+      </c>
+      <c r="K3" s="2">
+        <v>4735.1400000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6A5A76-DCCC-5642-AED5-9BFA93D3D9DF}">
+  <dimension ref="A1:O8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="E3" s="7">
+        <v>-158.00619</v>
+      </c>
+      <c r="F3" s="7">
+        <v>22.738772000000001</v>
+      </c>
+      <c r="G3" s="7">
+        <v>4729.92</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1.01</v>
+      </c>
+      <c r="I3" s="2">
+        <v>-0.84</v>
+      </c>
+      <c r="J3" s="2">
+        <v>4.66</v>
+      </c>
+      <c r="K3" s="2">
+        <f>J3+G3</f>
+        <v>4734.58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="E4" s="7">
+        <v>-158.00619</v>
+      </c>
+      <c r="F4" s="7">
+        <v>22.738772000000001</v>
+      </c>
+      <c r="G4" s="7">
+        <v>4729.92</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.238</v>
+      </c>
+      <c r="I4" s="2">
+        <v>-0.48399999999999999</v>
+      </c>
+      <c r="J4" s="2">
+        <v>4.32</v>
+      </c>
+      <c r="K4" s="2">
+        <f>G4+J4</f>
+        <v>4734.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="E5" s="7">
+        <v>-158.00619</v>
+      </c>
+      <c r="F5" s="7">
+        <v>22.738772000000001</v>
+      </c>
+      <c r="G5" s="7">
+        <v>4729.92</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.849</v>
+      </c>
+      <c r="I5" s="2">
+        <v>-0.84099999999999997</v>
+      </c>
+      <c r="J5" s="2">
+        <v>5.3049999999999997</v>
+      </c>
+      <c r="K5" s="2">
+        <f>G5+J5</f>
+        <v>4735.2250000000004</v>
+      </c>
+      <c r="L5" s="13">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="M5" s="13">
+        <v>9.2899999999999996E-2</v>
+      </c>
+      <c r="N5" s="13">
+        <v>7.2800000000000004E-2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7">
+        <f>K4-October2018_icListen!K4</f>
+        <v>1.0414000000000669</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7">
+        <f>1.75-L7</f>
+        <v>0.70859999999993306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <f>K5-October2018_icListen!K5</f>
+        <v>1.5860000000002401</v>
+      </c>
+      <c r="M8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8">
+        <f>1.75-L8</f>
+        <v>0.16399999999975989</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C48F84-0FFA-154D-A932-7C9D65014A74}">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="E3" s="7">
+        <v>-158.00613000000001</v>
+      </c>
+      <c r="F3" s="7">
+        <v>22.738772000000001</v>
+      </c>
+      <c r="G3" s="7">
+        <v>4728.17</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="I3" s="2">
+        <v>-5.12</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5.0750000000000002</v>
+      </c>
+      <c r="K3" s="2">
+        <f>G3+J3</f>
+        <v>4733.2449999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="E4" s="7">
+        <v>-158.00613000000001</v>
+      </c>
+      <c r="F4" s="7">
+        <v>22.739153000000002</v>
+      </c>
+      <c r="G4" s="7">
+        <v>4728.17</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.956</v>
+      </c>
+      <c r="I4" s="2">
+        <v>-4.7300000000000004</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5.0286</v>
+      </c>
+      <c r="K4" s="2">
+        <f>G4+J4</f>
+        <v>4733.1985999999997</v>
+      </c>
+      <c r="L4" s="13">
+        <v>6.2E-2</v>
+      </c>
+      <c r="M4" s="13">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="N4" s="13">
+        <v>5.1400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="E5" s="7">
+        <v>-158.00613000000001</v>
+      </c>
+      <c r="F5" s="7">
+        <v>22.739153000000002</v>
+      </c>
+      <c r="G5" s="7">
+        <v>4728.17</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2.3929999999999998</v>
+      </c>
+      <c r="I5" s="2">
+        <v>-5.0152999999999999</v>
+      </c>
+      <c r="J5" s="2">
+        <v>5.4690000000000003</v>
+      </c>
+      <c r="K5" s="2">
+        <f>G5+J5</f>
+        <v>4733.6390000000001</v>
+      </c>
+      <c r="L5" s="13">
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="M5" s="13">
+        <v>9.1300000000000006E-2</v>
+      </c>
+      <c r="N5" s="13">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>